--- a/US/data/CBS/NFIB/Regular Borrowers.xlsx
+++ b/US/data/CBS/NFIB/Regular Borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E92898E-B8C6-44F4-B60B-F45E125B0472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42658F66-5641-4B48-98D1-19FBB5E2737D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="463">
   <si>
     <t>Month/Year</t>
   </si>
@@ -31,36 +31,39 @@
     <t>1986/1/1</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1986/2/1</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1986/3/1</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>1986/2/1</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1986/3/1</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
     <t>1986/7/1</t>
   </si>
   <si>
@@ -82,66 +85,63 @@
     <t>1986/11/1</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>1986/12/1</t>
   </si>
   <si>
     <t>1987/1/1</t>
   </si>
   <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
     <t>1988/4/1</t>
   </si>
   <si>
@@ -238,18 +238,18 @@
     <t>1990/11/1</t>
   </si>
   <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
     <t>1991/3/1</t>
   </si>
   <si>
@@ -1348,15 +1348,18 @@
     <t>2020/11/1</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2020/12/1</t>
+  </si>
+  <si>
+    <t>2021/1/1</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>2020/12/1</t>
-  </si>
-  <si>
-    <t>2021/1/1</t>
-  </si>
-  <si>
     <t>2021/2/1</t>
   </si>
   <si>
@@ -1381,10 +1384,31 @@
     <t>20</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1849,12 +1873,12 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1862,15 +1886,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1878,18 +1902,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1921,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,44 +1929,44 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1950,7 +1974,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1958,23 +1982,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1982,15 +2006,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1998,7 +2022,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -2006,18 +2030,18 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2049,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2065,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2105,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2161,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,7 +2177,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2185,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2193,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2177,7 +2201,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,7 +2209,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +2217,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2225,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2233,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2241,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2257,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2265,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2281,7 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2289,7 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,31 +2297,31 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
         <v>75</v>
-      </c>
-      <c r="B63" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2305,7 +2329,7 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2321,7 +2345,7 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2353,7 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2361,7 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2369,7 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2385,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2409,7 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2425,7 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2433,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2441,7 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2449,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2457,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2473,7 @@
         <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2481,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2489,7 @@
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2497,7 @@
         <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2505,7 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2513,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2529,7 @@
         <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2537,7 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2545,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2553,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2561,7 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2569,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2577,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2585,7 @@
         <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2601,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2609,7 @@
         <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2617,7 @@
         <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2633,7 @@
         <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2641,7 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,7 +2657,7 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2681,7 @@
         <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2689,7 @@
         <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2713,7 @@
         <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2721,7 @@
         <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2729,7 @@
         <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2737,7 @@
         <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2745,7 @@
         <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2753,7 @@
         <v>131</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2761,7 @@
         <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2769,7 @@
         <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2777,7 @@
         <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,7 +2793,7 @@
         <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2809,7 @@
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2817,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2825,7 @@
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +2833,7 @@
         <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2841,7 @@
         <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2849,7 @@
         <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,7 +2857,7 @@
         <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2865,7 @@
         <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2873,7 @@
         <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2881,7 @@
         <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2889,7 @@
         <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2897,7 @@
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2905,7 @@
         <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2945,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2961,7 @@
         <v>157</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2969,7 @@
         <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2977,7 @@
         <v>159</v>
       </c>
       <c r="B145" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,7 +2985,7 @@
         <v>160</v>
       </c>
       <c r="B146" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +2993,7 @@
         <v>161</v>
       </c>
       <c r="B147" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +3001,7 @@
         <v>162</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +3009,7 @@
         <v>163</v>
       </c>
       <c r="B149" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3041,7 @@
         <v>167</v>
       </c>
       <c r="B153" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3049,7 @@
         <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3057,7 @@
         <v>169</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,7 +3065,7 @@
         <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3073,7 @@
         <v>171</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3097,7 @@
         <v>174</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3105,7 @@
         <v>175</v>
       </c>
       <c r="B161" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3113,7 @@
         <v>176</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3137,7 @@
         <v>179</v>
       </c>
       <c r="B165" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3153,7 @@
         <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +3161,7 @@
         <v>183</v>
       </c>
       <c r="B168" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +3177,7 @@
         <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3185,7 @@
         <v>186</v>
       </c>
       <c r="B171" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +3193,7 @@
         <v>187</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3201,7 @@
         <v>188</v>
       </c>
       <c r="B173" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3217,7 @@
         <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,7 +3233,7 @@
         <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3241,7 @@
         <v>193</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,7 +3249,7 @@
         <v>194</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3233,7 +3257,7 @@
         <v>195</v>
       </c>
       <c r="B180" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,7 +3265,7 @@
         <v>196</v>
       </c>
       <c r="B181" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,7 +3281,7 @@
         <v>198</v>
       </c>
       <c r="B183" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3289,7 @@
         <v>199</v>
       </c>
       <c r="B184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3297,7 @@
         <v>200</v>
       </c>
       <c r="B185" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,7 +3313,7 @@
         <v>202</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3321,7 @@
         <v>203</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3337,7 @@
         <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3353,7 @@
         <v>207</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,7 +3361,7 @@
         <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3369,7 @@
         <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3385,7 @@
         <v>211</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,7 +3393,7 @@
         <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +3401,7 @@
         <v>213</v>
       </c>
       <c r="B198" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,7 +3409,7 @@
         <v>214</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,7 +3417,7 @@
         <v>215</v>
       </c>
       <c r="B200" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3441,7 @@
         <v>219</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3449,7 @@
         <v>220</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3457,7 @@
         <v>221</v>
       </c>
       <c r="B205" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3441,7 +3465,7 @@
         <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,7 +3481,7 @@
         <v>224</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3465,7 +3489,7 @@
         <v>225</v>
       </c>
       <c r="B209" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3473,7 +3497,7 @@
         <v>226</v>
       </c>
       <c r="B210" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +3513,7 @@
         <v>228</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +3521,7 @@
         <v>229</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,7 +3537,7 @@
         <v>231</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,7 +3545,7 @@
         <v>232</v>
       </c>
       <c r="B216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +3561,7 @@
         <v>234</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3569,7 @@
         <v>235</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3585,7 @@
         <v>237</v>
       </c>
       <c r="B221" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,7 +3593,7 @@
         <v>238</v>
       </c>
       <c r="B222" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3577,7 +3601,7 @@
         <v>239</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3625,7 @@
         <v>242</v>
       </c>
       <c r="B226" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3633,7 @@
         <v>243</v>
       </c>
       <c r="B227" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3641,7 @@
         <v>244</v>
       </c>
       <c r="B228" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +3649,7 @@
         <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3657,7 @@
         <v>246</v>
       </c>
       <c r="B230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3681,7 @@
         <v>249</v>
       </c>
       <c r="B233" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3705,7 @@
         <v>252</v>
       </c>
       <c r="B236" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3721,7 @@
         <v>254</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3729,7 @@
         <v>255</v>
       </c>
       <c r="B239" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3745,7 @@
         <v>257</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3753,7 @@
         <v>258</v>
       </c>
       <c r="B242" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3769,7 @@
         <v>260</v>
       </c>
       <c r="B244" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3785,7 @@
         <v>262</v>
       </c>
       <c r="B246" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3801,7 @@
         <v>264</v>
       </c>
       <c r="B248" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +3825,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +3833,7 @@
         <v>269</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3841,7 @@
         <v>270</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3849,7 @@
         <v>271</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3857,7 @@
         <v>272</v>
       </c>
       <c r="B255" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3841,7 +3865,7 @@
         <v>273</v>
       </c>
       <c r="B256" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3873,7 @@
         <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3857,7 +3881,7 @@
         <v>275</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3865,7 +3889,7 @@
         <v>276</v>
       </c>
       <c r="B259" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +3913,7 @@
         <v>279</v>
       </c>
       <c r="B262" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3905,7 +3929,7 @@
         <v>281</v>
       </c>
       <c r="B264" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,7 +3937,7 @@
         <v>282</v>
       </c>
       <c r="B265" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3921,7 +3945,7 @@
         <v>283</v>
       </c>
       <c r="B266" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3929,7 +3953,7 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,7 +3961,7 @@
         <v>285</v>
       </c>
       <c r="B268" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3945,7 +3969,7 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +3977,7 @@
         <v>287</v>
       </c>
       <c r="B270" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,7 +3985,7 @@
         <v>288</v>
       </c>
       <c r="B271" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +3993,7 @@
         <v>289</v>
       </c>
       <c r="B272" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,7 +4001,7 @@
         <v>290</v>
       </c>
       <c r="B273" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3985,7 +4009,7 @@
         <v>291</v>
       </c>
       <c r="B274" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +4017,7 @@
         <v>292</v>
       </c>
       <c r="B275" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4001,7 +4025,7 @@
         <v>293</v>
       </c>
       <c r="B276" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,7 +4033,7 @@
         <v>294</v>
       </c>
       <c r="B277" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4041,7 @@
         <v>295</v>
       </c>
       <c r="B278" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4033,7 +4057,7 @@
         <v>297</v>
       </c>
       <c r="B280" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4049,7 +4073,7 @@
         <v>299</v>
       </c>
       <c r="B282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4065,7 +4089,7 @@
         <v>301</v>
       </c>
       <c r="B284" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4073,7 +4097,7 @@
         <v>302</v>
       </c>
       <c r="B285" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4081,7 +4105,7 @@
         <v>303</v>
       </c>
       <c r="B286" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4089,7 +4113,7 @@
         <v>304</v>
       </c>
       <c r="B287" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4097,7 +4121,7 @@
         <v>305</v>
       </c>
       <c r="B288" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4105,7 +4129,7 @@
         <v>306</v>
       </c>
       <c r="B289" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,7 +4137,7 @@
         <v>307</v>
       </c>
       <c r="B290" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4121,7 +4145,7 @@
         <v>308</v>
       </c>
       <c r="B291" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4129,7 +4153,7 @@
         <v>309</v>
       </c>
       <c r="B292" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4161,7 +4185,7 @@
         <v>313</v>
       </c>
       <c r="B296" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,7 +4201,7 @@
         <v>315</v>
       </c>
       <c r="B298" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4209,7 @@
         <v>316</v>
       </c>
       <c r="B299" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4217,7 @@
         <v>317</v>
       </c>
       <c r="B300" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4233,7 @@
         <v>319</v>
       </c>
       <c r="B302" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4257,7 @@
         <v>323</v>
       </c>
       <c r="B305" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4289,7 @@
         <v>327</v>
       </c>
       <c r="B309" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4297,7 @@
         <v>328</v>
       </c>
       <c r="B310" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4313,7 @@
         <v>330</v>
       </c>
       <c r="B312" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,7 +4329,7 @@
         <v>332</v>
       </c>
       <c r="B314" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4337,7 @@
         <v>333</v>
       </c>
       <c r="B315" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4385,7 +4409,7 @@
         <v>342</v>
       </c>
       <c r="B324" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4401,7 +4425,7 @@
         <v>344</v>
       </c>
       <c r="B326" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4465,7 +4489,7 @@
         <v>352</v>
       </c>
       <c r="B334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4481,7 +4505,7 @@
         <v>354</v>
       </c>
       <c r="B336" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4497,7 +4521,7 @@
         <v>356</v>
       </c>
       <c r="B338" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4561,7 +4585,7 @@
         <v>364</v>
       </c>
       <c r="B346" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4577,7 +4601,7 @@
         <v>366</v>
       </c>
       <c r="B348" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4593,7 +4617,7 @@
         <v>368</v>
       </c>
       <c r="B350" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4609,7 +4633,7 @@
         <v>370</v>
       </c>
       <c r="B352" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4649,7 +4673,7 @@
         <v>375</v>
       </c>
       <c r="B357" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4673,7 +4697,7 @@
         <v>378</v>
       </c>
       <c r="B360" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4689,7 +4713,7 @@
         <v>380</v>
       </c>
       <c r="B362" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -4753,7 +4777,7 @@
         <v>388</v>
       </c>
       <c r="B370" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4769,7 +4793,7 @@
         <v>390</v>
       </c>
       <c r="B372" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4785,7 +4809,7 @@
         <v>392</v>
       </c>
       <c r="B374" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4865,7 +4889,7 @@
         <v>403</v>
       </c>
       <c r="B384" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4873,7 +4897,7 @@
         <v>404</v>
       </c>
       <c r="B385" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4881,7 +4905,7 @@
         <v>405</v>
       </c>
       <c r="B386" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4897,7 +4921,7 @@
         <v>407</v>
       </c>
       <c r="B388" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4913,7 +4937,7 @@
         <v>409</v>
       </c>
       <c r="B390" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4929,7 +4953,7 @@
         <v>411</v>
       </c>
       <c r="B392" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4937,7 +4961,7 @@
         <v>412</v>
       </c>
       <c r="B393" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4953,7 +4977,7 @@
         <v>414</v>
       </c>
       <c r="B395" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -4961,7 +4985,7 @@
         <v>415</v>
       </c>
       <c r="B396" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -4969,7 +4993,7 @@
         <v>416</v>
       </c>
       <c r="B397" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -4977,7 +5001,7 @@
         <v>417</v>
       </c>
       <c r="B398" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -4985,7 +5009,7 @@
         <v>418</v>
       </c>
       <c r="B399" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -4993,7 +5017,7 @@
         <v>419</v>
       </c>
       <c r="B400" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5033,7 +5057,7 @@
         <v>424</v>
       </c>
       <c r="B405" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5057,7 +5081,7 @@
         <v>427</v>
       </c>
       <c r="B408" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5073,7 +5097,7 @@
         <v>429</v>
       </c>
       <c r="B410" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5169,12 +5193,12 @@
         <v>444</v>
       </c>
       <c r="B422" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B423" t="s">
         <v>397</v>
@@ -5182,7 +5206,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B424" t="s">
         <v>438</v>
@@ -5190,15 +5214,15 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B425" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B426" t="s">
         <v>438</v>
@@ -5206,7 +5230,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B427" t="s">
         <v>438</v>
@@ -5214,7 +5238,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B428" t="s">
         <v>438</v>
@@ -5222,32 +5246,79 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B429" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B430" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B431" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>457</v>
+      </c>
+      <c r="B432" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>458</v>
+      </c>
+      <c r="B433" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>459</v>
+      </c>
+      <c r="B434" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>460</v>
+      </c>
+      <c r="B435" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>461</v>
+      </c>
+      <c r="B436" t="s">
         <v>442</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>462</v>
+      </c>
+      <c r="B437" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Regular Borrowers.xlsx
+++ b/US/data/CBS/NFIB/Regular Borrowers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42658F66-5641-4B48-98D1-19FBB5E2737D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F0FC17-24B2-40B6-866C-15DB6384EC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="464">
   <si>
     <t>Month/Year</t>
   </si>
@@ -67,6 +67,9 @@
     <t>1986/7/1</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>1986/8/1</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>1986/10/1</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>1986/11/1</t>
   </si>
   <si>
@@ -1378,6 +1378,9 @@
     <t>2021/7/1</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>2021/8/1</t>
   </si>
   <si>
@@ -1387,9 +1390,6 @@
     <t>2021/9/1</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>2021/10/1</t>
   </si>
   <si>
@@ -1409,6 +1409,9 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1881,20 +1884,20 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1902,10 +1905,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +1980,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2076,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2116,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2172,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2268,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2364,7 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2460,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2556,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2652,7 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2748,7 @@
         <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2844,7 @@
         <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2940,7 @@
         <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3036,7 @@
         <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3132,7 @@
         <v>178</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3220,7 @@
         <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,7 +3228,7 @@
         <v>191</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +3324,7 @@
         <v>203</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3420,7 @@
         <v>215</v>
       </c>
       <c r="B200" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,7 +3516,7 @@
         <v>228</v>
       </c>
       <c r="B212" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3612,7 @@
         <v>240</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3708,7 @@
         <v>252</v>
       </c>
       <c r="B236" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +3804,7 @@
         <v>264</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +3900,7 @@
         <v>277</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +3996,7 @@
         <v>289</v>
       </c>
       <c r="B272" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4089,7 +4092,7 @@
         <v>301</v>
       </c>
       <c r="B284" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4188,7 @@
         <v>313</v>
       </c>
       <c r="B296" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4284,7 @@
         <v>326</v>
       </c>
       <c r="B308" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4377,7 +4380,7 @@
         <v>338</v>
       </c>
       <c r="B320" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4473,7 +4476,7 @@
         <v>350</v>
       </c>
       <c r="B332" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4569,7 +4572,7 @@
         <v>362</v>
       </c>
       <c r="B344" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4665,7 +4668,7 @@
         <v>374</v>
       </c>
       <c r="B356" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4761,7 +4764,7 @@
         <v>386</v>
       </c>
       <c r="B368" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4857,7 +4860,7 @@
         <v>399</v>
       </c>
       <c r="B380" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4953,7 +4956,7 @@
         <v>411</v>
       </c>
       <c r="B392" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5049,7 +5052,7 @@
         <v>423</v>
       </c>
       <c r="B404" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5145,7 +5148,7 @@
         <v>436</v>
       </c>
       <c r="B416" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5241,23 +5244,23 @@
         <v>451</v>
       </c>
       <c r="B428" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B429" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B430" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5314,11 +5317,20 @@
       </c>
       <c r="B437" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>463</v>
+      </c>
+      <c r="B438" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>